--- a/Mood of the World data 2013 2000.xlsx
+++ b/Mood of the World data 2013 2000.xlsx
@@ -2019,11 +2019,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -2516,7 +2520,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2590,7 +2594,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2619,7 +2623,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -2654,7 +2658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2722,7 +2726,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -2748,7 +2752,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2771,7 +2775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2800,32 +2804,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2836,7 +2840,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2871,7 +2875,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2879,7 +2883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -2887,12 +2891,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -2900,7 +2904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2938,7 +2942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -2946,7 +2950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>50</v>
       </c>
